--- a/input/households/Space_Heating.xlsx
+++ b/input/households/Space_Heating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\households\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB3F265-7932-4E86-ABFC-C641FFF69BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB45078-A522-465B-9B06-1E9F3AF914CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="753" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="228">
   <si>
     <t>Malta</t>
   </si>
@@ -253,9 +253,6 @@
     <t>SLED_Serbia_BUILDING_ENG.pdf</t>
   </si>
   <si>
-    <t>Albania, some further information</t>
-  </si>
-  <si>
     <t>BiH</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
   </si>
   <si>
     <t xml:space="preserve">ILC_HCMH02   </t>
-  </si>
-  <si>
-    <t>A3 / [4]</t>
   </si>
   <si>
     <t>A4</t>
@@ -632,9 +626,6 @@
     <t>Trend Rate in % source</t>
   </si>
   <si>
-    <t>LB Annahme aus Odyssee Mure ??</t>
-  </si>
-  <si>
     <t>[3], A2 (while ca. 26 in [4])</t>
   </si>
   <si>
@@ -654,6 +645,84 @@
   </si>
   <si>
     <t>Trend Rate [%] calc</t>
+  </si>
+  <si>
+    <t>A3, F1</t>
+  </si>
+  <si>
+    <t>[5], PerPerHousehold</t>
+  </si>
+  <si>
+    <t>Before actualization of data in [4]</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>spec. demand in 2012 = 2014 value</t>
+  </si>
+  <si>
+    <t>[4], A9, A10</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>change in spec. demand as in EU</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/328762354_Energy_Performance_of_European_Residential_Buildings_Energy_Use_Technical_and_Environmental_Characteristics_of_the_Greek_Residential_Sector_-_Energy_Conservation_and_CO_Reduction</t>
+  </si>
+  <si>
+    <t>Year 2014 Belgium</t>
+  </si>
+  <si>
+    <t>(A4)</t>
+  </si>
+  <si>
+    <t>[9] and [1], A9, A10 based on [1]</t>
+  </si>
+  <si>
+    <t>[1] p. 30 (162 and 146 [4])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High difference between the yearly change calculated based on 1990/2000 till 2012 data and source [4] based on 2000-2019 data </t>
+  </si>
+  <si>
+    <t>see pdf</t>
+  </si>
+  <si>
+    <t>https://www.odyssee-mure.eu/publications/efficiency-by-sector/households/household-eu.pdf</t>
+  </si>
+  <si>
+    <t>2019 in koe</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>spec. demand in 2019 = 2014 value</t>
+  </si>
+  <si>
+    <t>[4], A11</t>
+  </si>
+  <si>
+    <t>[4], A5</t>
+  </si>
+  <si>
+    <t>[4] for 2020, A9 + [4] for 2012</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>calculated based on yearly change</t>
+  </si>
+  <si>
+    <t>A12 based on 2012</t>
   </si>
 </sst>
 </file>
@@ -800,13 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +998,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -994,18 +1063,15 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1288,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,6 +1367,7 @@
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="11.5703125"/>
   </cols>
   <sheetData>
@@ -1309,33 +1376,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>124</v>
-      </c>
       <c r="G1" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="16">
         <v>96.4</v>
@@ -1347,7 +1414,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="16">
         <v>90.7</v>
@@ -1359,7 +1426,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="16">
         <v>96.4</v>
@@ -1372,7 +1439,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="16">
         <v>96.5</v>
@@ -1384,7 +1451,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="16">
         <v>97.1</v>
@@ -1396,7 +1463,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="16">
         <v>96.5</v>
@@ -1408,7 +1475,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="16">
         <v>96.9</v>
@@ -1432,7 +1499,7 @@
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="20">
         <f xml:space="preserve"> ( (B9/D9)^(1/(2012-2002)) -1 )*100</f>
@@ -1464,10 +1531,11 @@
         <v>60</v>
       </c>
       <c r="H11" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1484,10 +1552,11 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="20">
-        <v>0.39779999999999999</v>
+        <f xml:space="preserve"> ( (B12/D12)^(1/(2012-2002)) -1 )*100</f>
+        <v>0.80506174346790527</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1505,13 +1574,18 @@
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="53">
-        <v>0.39779999999999999</v>
+        <v>73</v>
+      </c>
+      <c r="H13" s="57">
+        <f xml:space="preserve"> ( (B13/D13)^(1/(2012-2002)) -1 )*100</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>203</v>
+      </c>
+      <c r="J13" s="20">
+        <f xml:space="preserve"> ( ((50.4*1.9)/(45.1*2.1))^(1/(2035-2017)) -1 )*100</f>
+        <v>6.1271374418825353E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1525,10 +1599,11 @@
         <v>60</v>
       </c>
       <c r="H14" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1545,7 +1620,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="20">
         <f xml:space="preserve"> ( (B15/D15)^(1/(2012-2002)) -1 )*100</f>
@@ -1566,7 +1641,7 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="20">
         <f t="shared" ref="H16:H20" si="0" xml:space="preserve"> ( (B16/D16)^(1/(2012-2002)) -1 )*100</f>
@@ -1587,7 +1662,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="20">
         <f xml:space="preserve"> ( (B17/D17)^(1/(2012-2002)) -1 )*100</f>
@@ -1608,10 +1683,11 @@
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="20">
-        <v>0.39779999999999999</v>
+        <f xml:space="preserve"> ( (B18/D18)^(1/(2012-2002)) -1 )*100</f>
+        <v>0.62958736948990346</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1645,7 +1721,7 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" si="0"/>
@@ -1663,10 +1739,11 @@
         <v>60</v>
       </c>
       <c r="H21" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1694,10 +1771,11 @@
         <v>60</v>
       </c>
       <c r="H23" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1714,7 +1792,7 @@
         <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" ref="H24" si="1" xml:space="preserve"> ( (B24/D24)^(1/(2012-2002)) -1 )*100</f>
@@ -1744,13 +1822,14 @@
         <v>90.7</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1767,7 +1846,7 @@
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H27" s="20">
         <f t="shared" ref="H27:H30" si="2" xml:space="preserve"> ( (B27/D27)^(1/(2012-2002)) -1 )*100</f>
@@ -1788,7 +1867,7 @@
         <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" s="20">
         <f t="shared" si="2"/>
@@ -1806,10 +1885,11 @@
         <v>60</v>
       </c>
       <c r="H29" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1826,7 +1906,7 @@
         <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" si="2"/>
@@ -1844,10 +1924,11 @@
         <v>60</v>
       </c>
       <c r="H31" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1861,10 +1942,11 @@
         <v>60</v>
       </c>
       <c r="H32" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1878,10 +1960,11 @@
         <v>60</v>
       </c>
       <c r="H33" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1898,7 +1981,7 @@
         <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" s="20">
         <f t="shared" ref="H34:H36" si="3" xml:space="preserve"> ( (B34/D34)^(1/(2012-2002)) -1 )*100</f>
@@ -1919,7 +2002,7 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H35" s="20">
         <f t="shared" si="3"/>
@@ -1935,13 +2018,13 @@
         <v>96.4</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36">
         <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H36" s="20">
         <f t="shared" si="3"/>
@@ -1959,10 +2042,11 @@
         <v>60</v>
       </c>
       <c r="H37" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1976,10 +2060,11 @@
         <v>60</v>
       </c>
       <c r="H38" s="20">
-        <v>0.39779999999999999</v>
+        <f>H13</f>
+        <v>0.80898545535437183</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1996,7 +2081,7 @@
         <v>99.1</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H39" s="20">
         <f xml:space="preserve"> ( (B39/F39)^(1/(2012-2021)) -1 )*100</f>
@@ -2019,7 +2104,7 @@
         <v>0.89969519709118817</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2031,14 +2116,14 @@
         <v>74.2</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41">
         <f>H42</f>
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2055,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2067,13 +2152,13 @@
         <v>74.2</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2084,13 +2169,13 @@
         <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K44" s="4"/>
     </row>
@@ -2107,13 +2192,13 @@
         <v>59</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2121,7 +2206,7 @@
         <v>61</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="33" t="s">
         <v>33</v>
@@ -2133,7 +2218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
         <v>62</v>
       </c>
@@ -2144,7 +2229,7 @@
         <v>34</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>68</v>
@@ -2153,7 +2238,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="33" t="s">
         <v>65</v>
       </c>
@@ -2164,114 +2249,108 @@
         <v>71</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="33" t="s">
+      <c r="D52" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
+    <row r="54" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
         <v>67</v>
       </c>
+      <c r="B55" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="33" t="s">
         <v>135</v>
       </c>
@@ -2279,24 +2358,32 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F47" r:id="rId2" xr:uid="{ACE107B0-2A42-4831-8B12-D3E23C34175D}"/>
-    <hyperlink ref="F53" r:id="rId3" xr:uid="{8E52F29A-1229-4702-84E6-D1230EECE150}"/>
-    <hyperlink ref="F54" r:id="rId4" xr:uid="{A6CCF893-ECBC-4751-A3DF-0CEE63BD6BEA}"/>
-    <hyperlink ref="F52" r:id="rId5" xr:uid="{145A9ACC-9F09-4458-B8AB-128AC552CEF4}"/>
+    <hyperlink ref="F52" r:id="rId3" xr:uid="{8E52F29A-1229-4702-84E6-D1230EECE150}"/>
+    <hyperlink ref="F53" r:id="rId4" xr:uid="{A6CCF893-ECBC-4751-A3DF-0CEE63BD6BEA}"/>
+    <hyperlink ref="F51" r:id="rId5" xr:uid="{145A9ACC-9F09-4458-B8AB-128AC552CEF4}"/>
     <hyperlink ref="F49" r:id="rId6" location="fullTextFileContent" xr:uid="{039AE47E-1AE7-4CA8-9ACB-72769D0C72C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2308,9 +2395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,12 +2473,12 @@
         <v>2050</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2437,7 +2524,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2529,7 +2616,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2928,7 +3015,7 @@
         <v>1.8</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z10" s="18"/>
     </row>
@@ -3360,7 +3447,7 @@
         <v>2.8</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z16" s="18"/>
     </row>
@@ -4639,7 +4726,7 @@
         <v>3.1</v>
       </c>
       <c r="W34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
@@ -4710,7 +4797,7 @@
         <v>3.7</v>
       </c>
       <c r="W35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -4773,7 +4860,7 @@
         <v>2.9</v>
       </c>
       <c r="W36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -4820,7 +4907,7 @@
         <v>2.1</v>
       </c>
       <c r="W37" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z37" s="30"/>
       <c r="AA37" s="4"/>
@@ -4890,7 +4977,7 @@
         <v>2.1</v>
       </c>
       <c r="W38" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z38" s="30"/>
       <c r="AA38" s="4"/>
@@ -4956,7 +5043,7 @@
         <v>3.7</v>
       </c>
       <c r="W39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -5019,7 +5106,7 @@
         <v>3.2</v>
       </c>
       <c r="W40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA40" s="4"/>
     </row>
@@ -5083,7 +5170,7 @@
         <v>2.5</v>
       </c>
       <c r="W41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -5097,13 +5184,13 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -5111,7 +5198,7 @@
         <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>64</v>
@@ -5125,10 +5212,10 @@
         <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>39</v>
@@ -5143,16 +5230,16 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
         <v>146</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -5163,7 +5250,7 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>44</v>
@@ -5174,7 +5261,7 @@
         <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>43</v>
@@ -5185,7 +5272,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5193,7 +5280,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5201,44 +5288,44 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B58" s="47"/>
       <c r="C58" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5247,21 +5334,21 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>42</v>
@@ -5271,12 +5358,12 @@
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="E62" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>40</v>
@@ -5294,13 +5381,13 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -5344,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,14 +5445,15 @@
     <col min="4" max="4" width="10.85546875"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
@@ -5373,7 +5461,7 @@
         <v>1990</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="37">
         <v>2000</v>
@@ -5382,28 +5470,31 @@
         <v>2012</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="37">
+        <v>163</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="37">
         <v>2019</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>200</v>
-      </c>
       <c r="I1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -5421,47 +5512,64 @@
         <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2">
+        <v>170</v>
+      </c>
+      <c r="G2">
+        <v>9.39</v>
+      </c>
+      <c r="H2" s="58">
+        <f>G2*$C$40</f>
+        <v>109.20570000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2">
         <f>(POWER(E2/B2,(1/($E$1-$B$1)))-1)*100</f>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-1.67</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <f>D2</f>
-        <v>165</v>
-      </c>
-      <c r="E3">
-        <f>E2</f>
-        <v>125</v>
+        <f>E3*12.9/9.65</f>
+        <v>232.8934585492228</v>
+      </c>
+      <c r="E3" s="52">
+        <f>223*E2/160</f>
+        <v>174.21875</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3">
-        <f>I2</f>
+        <v>214</v>
+      </c>
+      <c r="H3" s="58">
+        <f>E3*(1+J3/100)^7</f>
+        <v>156.68758528865035</v>
+      </c>
+      <c r="I3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3">
+        <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="J3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5479,20 +5587,30 @@
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4">
+        <v>170</v>
+      </c>
+      <c r="G4">
+        <v>7.44</v>
+      </c>
+      <c r="H4" s="58">
+        <f t="shared" ref="H4:H33" si="0">G4*$C$40</f>
+        <v>86.527200000000008</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4">
         <f>((E4/B4)^(1/($E$1-$B$1))-1)*100</f>
         <v>-1.6862858828190941</v>
       </c>
-      <c r="K4" s="57">
+      <c r="L4" s="55">
         <v>-0.185</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5503,23 +5621,33 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="51">
+        <v>170</v>
+      </c>
+      <c r="G5">
+        <v>14.7</v>
+      </c>
+      <c r="H5" s="58">
+        <f t="shared" si="0"/>
+        <v>170.96100000000001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="50">
         <f>((E5/D5)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.5695332314981556</v>
       </c>
-      <c r="K5" s="57">
+      <c r="L5" s="55">
         <v>-1.32</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="50">
+      <c r="N5">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5537,20 +5665,30 @@
         <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6">
+        <v>170</v>
+      </c>
+      <c r="G6">
+        <v>11.3</v>
+      </c>
+      <c r="H6" s="58">
+        <f t="shared" si="0"/>
+        <v>131.41900000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6">
         <f>((E6/B6)^(1/($E$1-$B$1))-1)*100</f>
         <v>-1.1585249462340963</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-1.25</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5567,24 +5705,33 @@
         <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I7">
+        <v>170</v>
+      </c>
+      <c r="G7">
+        <v>11.2</v>
+      </c>
+      <c r="H7" s="58">
+        <f t="shared" si="0"/>
+        <v>130.256</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7">
         <f>((E7/B7)^(1/($E$1-$B$1))-1)*100</f>
         <v>-1.4511121374695013</v>
       </c>
-      <c r="K7" s="57">
+      <c r="L7" s="55">
         <v>-1.97</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="50">
+      <c r="N7">
         <v>-2.1</v>
       </c>
-      <c r="N7" s="50"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5595,23 +5742,33 @@
         <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="51">
+        <v>170</v>
+      </c>
+      <c r="G8">
+        <v>14.6</v>
+      </c>
+      <c r="H8" s="58">
+        <f t="shared" si="0"/>
+        <v>169.798</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="50">
         <f>((E8/D8)^(1/($E$1-$D$1))-1)*100</f>
         <v>-1.2763733707280012</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="50">
+      <c r="N8">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5629,23 +5786,33 @@
         <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9">
+        <v>170</v>
+      </c>
+      <c r="G9">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H9" s="58">
+        <f t="shared" si="0"/>
+        <v>101.41360000000002</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9">
         <f>((E9/B9)^(1/($E$1-$B$1))-1)*100</f>
         <v>-3.9884769915709772</v>
       </c>
-      <c r="K9" s="57">
+      <c r="L9" s="55">
         <v>-2.8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="50">
+      <c r="N9">
         <v>-3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5663,23 +5830,33 @@
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10">
+        <v>170</v>
+      </c>
+      <c r="G10">
+        <v>7.31</v>
+      </c>
+      <c r="H10" s="58">
+        <f t="shared" si="0"/>
+        <v>85.015299999999996</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10">
         <f>((E10/B10)^(1/($E$1-$B$1))-1)*100</f>
         <v>-0.68402651315054852</v>
       </c>
-      <c r="K10" s="57">
+      <c r="L10" s="55">
         <v>-1.56</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="50">
+      <c r="N10">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -5690,23 +5867,33 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="51">
+        <v>170</v>
+      </c>
+      <c r="G11">
+        <v>3.92</v>
+      </c>
+      <c r="H11" s="58">
+        <f t="shared" si="0"/>
+        <v>45.589600000000004</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="50">
         <f>((E11/D11)^(1/($E$1-$D$1))-1)*100</f>
         <v>-1.5078624739111257</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-1.74</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="50">
+      <c r="N11">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5724,20 +5911,30 @@
         <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I30" si="0">((E12/B12)^(1/($E$1-$B$1))-1)*100</f>
+        <v>170</v>
+      </c>
+      <c r="G12">
+        <v>9.85</v>
+      </c>
+      <c r="H12" s="58">
+        <f t="shared" si="0"/>
+        <v>114.55550000000001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J30" si="1">((E12/B12)^(1/($E$1-$B$1))-1)*100</f>
         <v>-2.0624685001954246</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -5748,23 +5945,33 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="51">
+        <v>170</v>
+      </c>
+      <c r="G13">
+        <v>12.9</v>
+      </c>
+      <c r="H13" s="58">
+        <f t="shared" si="0"/>
+        <v>150.02700000000002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="50">
         <f>((E13/D13)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.579948590954817</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-1.44</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>65</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -5782,30 +5989,33 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G14">
-        <f>9.44*C40</f>
+        <v>9.44</v>
+      </c>
+      <c r="H14" s="58">
+        <f t="shared" si="0"/>
         <v>109.7872</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="I14">
-        <f>((G14/B14)^(1/($G$1-$B$1))-1)*100</f>
+      <c r="J14">
+        <f>((H14/B14)^(1/($H$1-$B$1))-1)*100</f>
         <v>-0.19852375913819165</v>
       </c>
-      <c r="K14" s="57">
+      <c r="L14" s="55">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>65</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -5813,29 +6023,32 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G15">
-        <f>2.56*C40</f>
+        <v>2.56</v>
+      </c>
+      <c r="H15" s="58">
+        <f t="shared" si="0"/>
         <v>29.772800000000004</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>65</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="57">
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="55">
         <v>-1.56</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -5846,23 +6059,33 @@
         <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="51">
+        <v>170</v>
+      </c>
+      <c r="G16">
+        <v>15.5</v>
+      </c>
+      <c r="H16" s="58">
+        <f t="shared" si="0"/>
+        <v>180.26500000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="50">
         <f>((E16/D16)^(1/($E$1-$D$1))-1)*100</f>
         <v>-3.6429141855319758</v>
       </c>
-      <c r="K16" s="57">
+      <c r="L16" s="55">
         <v>-2.84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="50">
+      <c r="N16">
         <v>-3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -5873,52 +6096,66 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="51">
+        <v>170</v>
+      </c>
+      <c r="G17">
+        <v>11.3</v>
+      </c>
+      <c r="H17" s="58">
+        <f t="shared" si="0"/>
+        <v>131.41900000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="50">
         <f>((E17/D17)^(1/($E$1-$D$1))-1)*100</f>
         <v>-4.325561251394106</v>
       </c>
-      <c r="K17" s="57">
+      <c r="L17" s="55">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="50">
+      <c r="N17">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="50">
-        <v>135</v>
+      <c r="D18">
+        <f>E18*12.9/9.65</f>
+        <v>251.85879792746115</v>
       </c>
       <c r="E18">
         <f>16.2*$C$40</f>
         <v>188.40600000000001</v>
       </c>
       <c r="F18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18">
+        <v>13.7</v>
+      </c>
+      <c r="H18" s="58">
+        <f t="shared" si="0"/>
+        <v>159.33099999999999</v>
+      </c>
+      <c r="I18" t="s">
         <v>65</v>
       </c>
-      <c r="G18">
-        <f>13.7*$C$40</f>
-        <v>159.33099999999999</v>
-      </c>
-      <c r="H18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18">
-        <f>I2</f>
+      <c r="J18">
+        <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="J18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -5929,21 +6166,31 @@
         <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" s="51">
+        <v>170</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19" s="58">
+        <f t="shared" si="0"/>
+        <v>174.45000000000002</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="50">
         <f>((E19/D19)^(1/($E$1-$D$1))-1)*100</f>
         <v>-0.2219886323331588</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="57">
+      <c r="K19" s="4"/>
+      <c r="L19" s="55">
         <v>0.72299999999999998</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -5952,23 +6199,26 @@
         <v>28.5</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20">
-        <f>0.418*C40</f>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H20" s="58">
+        <f t="shared" si="0"/>
         <v>4.8613400000000002</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>65</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -5986,23 +6236,33 @@
         <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21">
+        <v>170</v>
+      </c>
+      <c r="G21">
+        <v>7.5</v>
+      </c>
+      <c r="H21" s="58">
         <f t="shared" si="0"/>
+        <v>87.225000000000009</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
         <v>-3.2765921689998478</v>
       </c>
-      <c r="K21" s="57">
+      <c r="L21" s="55">
         <v>-2.71</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="50">
+      <c r="N21">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -6020,23 +6280,33 @@
         <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22">
+        <v>170</v>
+      </c>
+      <c r="G22">
+        <v>13.7</v>
+      </c>
+      <c r="H22" s="58">
         <f t="shared" si="0"/>
+        <v>159.33099999999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
         <v>-1.9742733387613565</v>
       </c>
-      <c r="K22" s="57">
+      <c r="L22" s="55">
         <v>-1.45</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="50">
+      <c r="N22">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -6054,20 +6324,30 @@
         <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23">
+        <v>170</v>
+      </c>
+      <c r="G23">
+        <v>13.5</v>
+      </c>
+      <c r="H23" s="58">
         <f t="shared" si="0"/>
+        <v>157.00500000000002</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
         <v>-1.8120954775025955</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-1.79</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6078,16 +6358,26 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24">
+        <v>170</v>
+      </c>
+      <c r="G24">
+        <v>1.7</v>
+      </c>
+      <c r="H24" s="58">
+        <f t="shared" si="0"/>
+        <v>19.771000000000001</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6098,20 +6388,27 @@
         <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25" s="51">
+        <v>170</v>
+      </c>
+      <c r="H25" s="58">
+        <f>E25*(1+J25/100)^7</f>
+        <v>107.62613233710704</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" s="50">
         <f>((E25/D25)^(1/($E$1-$D$1))-1)*100</f>
         <v>-4.6317568829852052</v>
       </c>
-      <c r="K25" s="57">
+      <c r="L25" s="55">
         <v>-2.16</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6122,20 +6419,30 @@
         <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="51">
+        <v>170</v>
+      </c>
+      <c r="G26">
+        <v>11.4</v>
+      </c>
+      <c r="H26" s="58">
+        <f t="shared" si="0"/>
+        <v>132.58200000000002</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="50">
         <f>((E26/D26)^(1/($E$1-$D$1))-1)*100</f>
         <v>-3.4144604744719809</v>
       </c>
-      <c r="K26" s="57">
+      <c r="L26" s="55">
         <v>-2.91</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6146,20 +6453,30 @@
         <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="51">
+        <v>170</v>
+      </c>
+      <c r="G27">
+        <v>9.76</v>
+      </c>
+      <c r="H27" s="58">
+        <f t="shared" si="0"/>
+        <v>113.50880000000001</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="50">
         <f>((E27/D27)^(1/($E$1-$D$1))-1)*100</f>
         <v>-3.4492222843125253</v>
       </c>
-      <c r="K27" s="57">
+      <c r="L27" s="55">
         <v>-2.1</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6170,27 +6487,30 @@
         <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="57">
-        <f>11.4*C40</f>
+        <v>215</v>
+      </c>
+      <c r="G28">
+        <v>11.4</v>
+      </c>
+      <c r="H28" s="58">
+        <f t="shared" si="0"/>
         <v>132.58200000000002</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="I28" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="51">
+      <c r="J28" s="50">
         <f>((E28/D28)^(1/($E$1-$D$1))-1)*100</f>
         <v>0.22549279001520262</v>
       </c>
-      <c r="K28" s="57">
+      <c r="L28" s="55">
         <v>-1.06</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6208,20 +6528,30 @@
         <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29">
+        <v>170</v>
+      </c>
+      <c r="G29">
+        <v>8.61</v>
+      </c>
+      <c r="H29" s="58">
         <f t="shared" si="0"/>
+        <v>100.1343</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="K29" s="57">
+      <c r="L29" s="55">
         <v>-2.41</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6239,14 +6569,24 @@
         <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30">
+        <v>170</v>
+      </c>
+      <c r="G30">
+        <v>9.23</v>
+      </c>
+      <c r="H30" s="58">
         <f t="shared" si="0"/>
+        <v>107.34490000000001</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
         <v>-1.3517931771567682</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6257,14 +6597,25 @@
         <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="51">
+        <v>133</v>
+      </c>
+      <c r="G31">
+        <f>G29</f>
+        <v>8.61</v>
+      </c>
+      <c r="H31" s="58">
+        <f t="shared" si="0"/>
+        <v>100.1343</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="50">
         <f>((E31/D31)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.5298223451702295</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
@@ -6277,44 +6628,61 @@
         <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="51">
+        <v>133</v>
+      </c>
+      <c r="G32">
+        <f>G29</f>
+        <v>8.61</v>
+      </c>
+      <c r="H32" s="58">
+        <f t="shared" si="0"/>
+        <v>100.1343</v>
+      </c>
+      <c r="I32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" s="50">
         <f>((E32/D32)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.5298223451702295</v>
       </c>
-      <c r="S32">
-        <f>12.6*C40</f>
-        <v>146.53800000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D33">
-        <f>D22</f>
-        <v>203</v>
+        <f>14.2*C40</f>
+        <v>165.14600000000002</v>
       </c>
       <c r="E33">
-        <f>E22</f>
-        <v>150</v>
+        <f>10.6*C40</f>
+        <v>123.27800000000001</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
-      </c>
-      <c r="I33" s="51">
+        <v>224</v>
+      </c>
+      <c r="G33">
+        <v>9.84</v>
+      </c>
+      <c r="H33" s="58">
+        <f t="shared" si="0"/>
+        <v>114.4392</v>
+      </c>
+      <c r="I33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="50">
         <f>((E33/D33)^(1/($E$1-$D$1))-1)*100</f>
-        <v>-2.4899000136235139</v>
-      </c>
-      <c r="K33" s="57">
+        <v>-2.4071217151306668</v>
+      </c>
+      <c r="L33" s="55">
         <v>-1.93</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
@@ -6327,17 +6695,25 @@
         <v>178.33333333333334</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I34">
-        <f>I2</f>
+        <v>128</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="58">
+        <f>E34*(1+J34/100)^7</f>
+        <v>160.38812915645406</v>
+      </c>
+      <c r="I34" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34">
+        <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="J34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>35</v>
       </c>
@@ -6348,40 +6724,55 @@
         <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35">
-        <f>I2</f>
+        <v>178</v>
+      </c>
+      <c r="H35" s="58">
+        <f>E35*(1+J35/100)^7</f>
+        <v>116.9184492916207</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35">
+        <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="J35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="22">
-        <f>F66</f>
+        <f>F73</f>
         <v>182.90043290043297</v>
       </c>
       <c r="E36" s="22">
-        <f>G66</f>
+        <f>H73</f>
         <v>139.18666484961028</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="55">
-        <f>E66</f>
+        <v>189</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="58">
+        <f>E36*(1+J36/100)^7</f>
+        <v>118.68731833716539</v>
+      </c>
+      <c r="I36" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" s="53">
+        <f>E73</f>
         <v>-2.2503431994435497</v>
       </c>
-      <c r="J36" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K36" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -6394,17 +6785,25 @@
         <v>130</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="54">
-        <f>I2/10</f>
+        <v>128</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="58">
+        <f>E37*(1+J37/100)^7</f>
+        <v>128.63779852083024</v>
+      </c>
+      <c r="I37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J37" s="52">
+        <f>J2/10</f>
         <v>-0.15036909878066496</v>
       </c>
-      <c r="J37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>41</v>
       </c>
@@ -6413,7 +6812,7 @@
         <v>160</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38" si="1">(120+200)/2</f>
+        <f t="shared" ref="D38" si="2">(120+200)/2</f>
         <v>160</v>
       </c>
       <c r="E38">
@@ -6421,25 +6820,32 @@
         <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38">
-        <f>I2</f>
+        <v>181</v>
+      </c>
+      <c r="H38" s="58">
+        <f>E38*(1+J38/100)^7</f>
+        <v>143.89962989737933</v>
+      </c>
+      <c r="I38" t="s">
+        <v>227</v>
+      </c>
+      <c r="J38">
+        <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="J38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40">
         <v>11.63</v>
@@ -6448,10 +6854,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -6459,46 +6865,52 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>66</v>
       </c>
@@ -6509,9 +6921,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -6522,18 +6934,18 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>70</v>
@@ -6542,170 +6954,222 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" t="s">
-        <v>170</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>202</v>
-      </c>
       <c r="B61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" t="s">
-        <v>178</v>
+        <v>205</v>
+      </c>
+      <c r="C61" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="55"/>
+      <c r="C66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>203</v>
-      </c>
-      <c r="B64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18">
         <v>2015</v>
       </c>
-      <c r="D65">
+      <c r="D72">
         <v>2030</v>
       </c>
-      <c r="F65">
+      <c r="F72">
         <v>2000</v>
       </c>
-      <c r="G65">
+      <c r="H72">
         <v>2012</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="18"/>
-      <c r="C66">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="18"/>
+      <c r="C73">
         <v>130</v>
       </c>
-      <c r="D66">
+      <c r="D73">
         <v>92.4</v>
       </c>
-      <c r="E66">
-        <f>(POWER(D66/C66,(1/(D65-C65)))-1)*100</f>
+      <c r="E73">
+        <f>(POWER(D73/C73,(1/(D72-C72)))-1)*100</f>
         <v>-2.2503431994435497</v>
       </c>
-      <c r="F66">
-        <f>$C$66*(1+$E$66/100)^(F65-$C$65)</f>
+      <c r="F73">
+        <f>$C$73*(1+$E$73/100)^(F72-$C$72)</f>
         <v>182.90043290043297</v>
       </c>
-      <c r="G66">
-        <f>$C$66*(1+$E$66/100)^(G65-$C$65)</f>
+      <c r="H73">
+        <f>$C$73*(1+$E$73/100)^(H72-$C$72)</f>
         <v>139.18666484961028</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O68" s="4"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I79" s="4"/>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P75" s="4"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E48" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E62" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E69" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="E47" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="E44" r:id="rId4" xr:uid="{239413D0-A1EF-46AC-AB53-48732DE9BE13}"/>
     <hyperlink ref="E45" r:id="rId5" location="tab-chart_1" xr:uid="{013FEB32-9035-44D1-A476-B2722818BEEB}"/>
     <hyperlink ref="E43" r:id="rId6" xr:uid="{4A067A65-8409-4407-80AA-56375FEB6929}"/>
     <hyperlink ref="E49" r:id="rId7" xr:uid="{E89BC05D-B2E6-403A-8E0A-FE9936513D70}"/>
-    <hyperlink ref="E50" r:id="rId8" location="fullTextFileContent" xr:uid="{A9EDD100-2E38-44D5-B616-E4E487A74BA3}"/>
-    <hyperlink ref="E46" r:id="rId9" xr:uid="{3BB595D8-B08B-457F-B8AD-F690C6B34F50}"/>
+    <hyperlink ref="E46" r:id="rId8" xr:uid="{3BB595D8-B08B-457F-B8AD-F690C6B34F50}"/>
+    <hyperlink ref="E50" r:id="rId9" location="fullTextFileContent" xr:uid="{A9EDD100-2E38-44D5-B616-E4E487A74BA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -6724,42 +7188,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>86</v>
       </c>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="C5" s="27"/>
     </row>
@@ -6770,59 +7234,59 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -6830,20 +7294,20 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -6856,51 +7320,51 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="27"/>
     </row>

--- a/input/households/Space_Heating.xlsx
+++ b/input/households/Space_Heating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\households\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB45078-A522-465B-9B06-1E9F3AF914CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799A6B5-0F4C-4FBB-BF79-E6558F3C15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="753" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="-17910" windowWidth="14400" windowHeight="16455" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaPerHousehold" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="233">
   <si>
     <t>Malta</t>
   </si>
@@ -529,9 +529,6 @@
     <t>Years 2000 and 2012</t>
   </si>
   <si>
-    <t>Source / Assumption (2000,2012)</t>
-  </si>
-  <si>
     <t>Source / Assumption (1990)</t>
   </si>
   <si>
@@ -545,9 +542,6 @@
   </si>
   <si>
     <t>kWh/km² = EU average value</t>
-  </si>
-  <si>
-    <t>Source / Assumption Trend Rate</t>
   </si>
   <si>
     <t>[1] p. 30</t>
@@ -623,9 +617,6 @@
 since 2000, by around 2.3%/year at EU level</t>
   </si>
   <si>
-    <t>Trend Rate in % source</t>
-  </si>
-  <si>
     <t>[3], A2 (while ca. 26 in [4])</t>
   </si>
   <si>
@@ -650,9 +641,6 @@
     <t>A3, F1</t>
   </si>
   <si>
-    <t>[5], PerPerHousehold</t>
-  </si>
-  <si>
     <t>Before actualization of data in [4]</t>
   </si>
   <si>
@@ -680,9 +668,6 @@
     <t>Year 2014 Belgium</t>
   </si>
   <si>
-    <t>(A4)</t>
-  </si>
-  <si>
     <t>[9] and [1], A9, A10 based on [1]</t>
   </si>
   <si>
@@ -723,6 +708,36 @@
   </si>
   <si>
     <t>A12 based on 2012</t>
+  </si>
+  <si>
+    <t>Source / Assumption (2000, 2012)</t>
+  </si>
+  <si>
+    <t>Trend Rate [%] source</t>
+  </si>
+  <si>
+    <t>Source / Assumption (Trend Rate calc)</t>
+  </si>
+  <si>
+    <t>Source / Assumption (Trend Rate source)</t>
+  </si>
+  <si>
+    <t>Source / Assumption (2025-2050)</t>
+  </si>
+  <si>
+    <t>Source / Assumption (till 2020)</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
+    <t>[5], PerPersHousehold</t>
+  </si>
+  <si>
+    <t>A3, A4</t>
+  </si>
+  <si>
+    <t>value for 2018 equals the one of the year 2019</t>
   </si>
 </sst>
 </file>
@@ -836,7 +851,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,12 +861,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1007,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1024,8 +1033,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1047,9 +1055,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1058,9 +1063,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1068,10 +1073,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1357,50 +1370,50 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H38" sqref="H38:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="39" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -1412,7 +1425,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1424,7 +1437,7 @@
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -1437,7 +1450,7 @@
       <c r="H4" s="20"/>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -1449,7 +1462,7 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -1461,7 +1474,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1473,7 +1486,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1485,7 +1498,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1506,7 +1519,7 @@
         <v>3.7521888475875231</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -1516,11 +1529,15 @@
       <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="20">
+        <f>$H$13</f>
+        <v>0.80898545535437183</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
@@ -1531,14 +1548,14 @@
         <v>60</v>
       </c>
       <c r="H11" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1577,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -1576,19 +1593,19 @@
       <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="55">
         <f xml:space="preserve"> ( (B13/D13)^(1/(2012-2002)) -1 )*100</f>
         <v>0.80898545535437183</v>
       </c>
       <c r="I13" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="J13" s="20">
         <f xml:space="preserve"> ( ((50.4*1.9)/(45.1*2.1))^(1/(2035-2017)) -1 )*100</f>
         <v>6.1271374418825353E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
@@ -1602,11 +1619,11 @@
         <f>H13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1644,7 @@
         <v>-0.948574178547823</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1665,7 @@
         <v>1.0262827546208886</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1686,7 @@
         <v>1.5466201113653932</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1707,7 @@
         <v>0.62958736948990346</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1700,14 +1717,15 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="25">
-        <v>1</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="20">
+        <f>$H$13</f>
+        <v>0.80898545535437183</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
@@ -1728,7 +1746,7 @@
         <v>0.3929772702200518</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
@@ -1739,14 +1757,14 @@
         <v>60</v>
       </c>
       <c r="H21" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>16</v>
       </c>
@@ -1756,11 +1774,15 @@
       <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="20">
+        <f>$H$13</f>
+        <v>0.80898545535437183</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>17</v>
       </c>
@@ -1771,14 +1793,14 @@
         <v>60</v>
       </c>
       <c r="H23" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
@@ -1799,7 +1821,7 @@
         <v>0.47760344140972411</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>19</v>
       </c>
@@ -1809,11 +1831,15 @@
       <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="20">
+        <f>$H$13</f>
+        <v>0.80898545535437183</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
@@ -1825,14 +1851,14 @@
         <v>124</v>
       </c>
       <c r="H26" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +1879,7 @@
         <v>0.85416413724435092</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +1900,7 @@
         <v>0.91724282861651574</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>22</v>
       </c>
@@ -1885,14 +1911,14 @@
         <v>60</v>
       </c>
       <c r="H29" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>1</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>2.5147492039382602</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>23</v>
       </c>
@@ -1924,14 +1950,14 @@
         <v>60</v>
       </c>
       <c r="H31" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>24</v>
       </c>
@@ -1942,14 +1968,14 @@
         <v>60</v>
       </c>
       <c r="H32" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>25</v>
       </c>
@@ -1960,14 +1986,14 @@
         <v>60</v>
       </c>
       <c r="H33" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +2014,7 @@
         <v>1.4131563278658721</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>27</v>
       </c>
@@ -2009,7 +2035,7 @@
         <v>1.0288163608925371</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>28</v>
       </c>
@@ -2031,7 +2057,7 @@
         <v>1.2665025142567954</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>29</v>
       </c>
@@ -2042,14 +2068,14 @@
         <v>60</v>
       </c>
       <c r="H37" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>30</v>
       </c>
@@ -2060,14 +2086,14 @@
         <v>60</v>
       </c>
       <c r="H38" s="20">
-        <f>H13</f>
+        <f>$H$13</f>
         <v>0.80898545535437183</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>31</v>
       </c>
@@ -2088,7 +2114,7 @@
         <v>-1.8466524653672156</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>33</v>
       </c>
@@ -2107,7 +2133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -2126,7 +2152,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>34</v>
       </c>
@@ -2143,7 +2169,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>40</v>
       </c>
@@ -2152,7 +2178,7 @@
         <v>74.2</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2161,7 +2187,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>41</v>
       </c>
@@ -2179,200 +2205,200 @@
       </c>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+    <row r="45" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="33" t="s">
+    <row r="48" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+    <row r="49" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="33" t="s">
+    <row r="50" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
+    <row r="51" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="32" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="33" t="s">
+    <row r="52" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="32" t="s">
         <v>104</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="33" t="s">
+    <row r="53" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
+    <row r="54" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" t="s">
+    <row r="56" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="33" t="s">
+    <row r="57" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="33" t="s">
+    <row r="58" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="33" t="s">
+    <row r="59" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="33" t="s">
+    <row r="60" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="33" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2393,19 +2419,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
+    <col min="24" max="24" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2451,7 +2479,7 @@
       <c r="O1" s="7">
         <v>2019</v>
       </c>
-      <c r="P1" s="42">
+      <c r="P1" s="40">
         <v>2020</v>
       </c>
       <c r="Q1" s="5">
@@ -2472,11 +2500,14 @@
       <c r="V1" s="5">
         <v>2050</v>
       </c>
-      <c r="W1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W1" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2514,15 +2545,16 @@
       <c r="O2" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="40"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="38"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W2" s="59"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -2560,15 +2592,16 @@
       <c r="O3" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="38"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W3" s="59"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2606,15 +2639,16 @@
       <c r="O4" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="40"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="38"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W4" s="59"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2652,15 +2686,16 @@
       <c r="O5" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="38"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W5" s="59"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2706,10 +2741,10 @@
       <c r="O6" s="8">
         <v>2.4</v>
       </c>
-      <c r="P6" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q6" s="40">
+      <c r="P6" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q6" s="38">
         <v>2.2999999999999998</v>
       </c>
       <c r="R6" s="8">
@@ -2727,12 +2762,15 @@
       <c r="V6" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z6" s="18"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6" s="18"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2778,10 +2816,10 @@
       <c r="O7" s="8">
         <v>2.4</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="41">
         <v>2.4</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="38">
         <v>2.4500000000000002</v>
       </c>
       <c r="R7" s="8">
@@ -2799,12 +2837,15 @@
       <c r="V7" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="W7" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z7" s="18"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="18"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2850,10 +2891,10 @@
       <c r="O8" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P8" s="43">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q8" s="40">
+      <c r="P8" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q8" s="38">
         <v>2.2999999999999998</v>
       </c>
       <c r="R8" s="8">
@@ -2871,12 +2912,15 @@
       <c r="V8" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="W8" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="18"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="18"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2922,10 +2966,10 @@
       <c r="O9" s="8">
         <v>2.1</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="41">
         <v>2.1</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="38">
         <v>2.1</v>
       </c>
       <c r="R9" s="8">
@@ -2943,12 +2987,15 @@
       <c r="V9" s="8">
         <v>2.1</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="W9" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z9" s="18"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="18"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2994,16 +3041,16 @@
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="41">
         <v>2</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="43">
         <v>1.95</v>
       </c>
       <c r="R10" s="8">
         <v>1.93</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10" s="44">
         <v>1.9</v>
       </c>
       <c r="T10" s="8">
@@ -3014,12 +3061,15 @@
       <c r="V10" s="8">
         <v>1.8</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="Z10" s="18"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="18"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -3065,10 +3115,10 @@
       <c r="O11" s="8">
         <v>2</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="41">
         <v>2.1</v>
       </c>
-      <c r="Q11" s="40">
+      <c r="Q11" s="38">
         <v>2.1</v>
       </c>
       <c r="R11" s="8">
@@ -3086,12 +3136,15 @@
       <c r="V11" s="8">
         <v>2.1</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="18"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="18"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3137,10 +3190,10 @@
       <c r="O12" s="8">
         <v>2.6</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="41">
         <v>2.6</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="38">
         <v>2.65</v>
       </c>
       <c r="R12" s="8">
@@ -3158,12 +3211,15 @@
       <c r="V12" s="8">
         <v>2.6</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z12" s="18"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3209,10 +3265,10 @@
       <c r="O13" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P13" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q13" s="40">
+      <c r="P13" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q13" s="38">
         <v>2.5499999999999998</v>
       </c>
       <c r="R13" s="8">
@@ -3230,12 +3286,15 @@
       <c r="V13" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W13" s="18" t="s">
+      <c r="W13" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z13" s="18"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="18"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -3281,10 +3340,10 @@
       <c r="O14" s="8">
         <v>2.5</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="41">
         <v>2.5</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="38">
         <v>2.65</v>
       </c>
       <c r="R14" s="8">
@@ -3302,12 +3361,15 @@
       <c r="V14" s="8">
         <v>2.5</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="18"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -3353,10 +3415,10 @@
       <c r="O15" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P15" s="43">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q15" s="40">
+      <c r="P15" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q15" s="38">
         <v>2.2999999999999998</v>
       </c>
       <c r="R15" s="8">
@@ -3374,12 +3436,15 @@
       <c r="V15" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W15" s="18" t="s">
+      <c r="W15" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z15" s="18"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="18"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3425,10 +3490,10 @@
       <c r="O16" s="8">
         <v>2.8</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="41">
         <v>2.8</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="38">
         <v>2.8</v>
       </c>
       <c r="R16" s="8">
@@ -3446,12 +3511,15 @@
       <c r="V16" s="8">
         <v>2.8</v>
       </c>
-      <c r="W16" s="18" t="s">
+      <c r="W16" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X16" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Z16" s="18"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="18"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
@@ -3497,10 +3565,10 @@
       <c r="O17" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P17" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q17" s="40">
+      <c r="P17" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q17" s="38">
         <v>2.35</v>
       </c>
       <c r="R17" s="8">
@@ -3518,12 +3586,15 @@
       <c r="V17" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z17" s="18"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="18"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3569,10 +3640,10 @@
       <c r="O18" s="8">
         <v>2.6</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="41">
         <v>2.6</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="38">
         <v>2.5499999999999998</v>
       </c>
       <c r="R18" s="8">
@@ -3590,12 +3661,15 @@
       <c r="V18" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="W18" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z18" s="18"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="18"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -3641,10 +3715,10 @@
       <c r="O19" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P19" s="43">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q19" s="40">
+      <c r="P19" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q19" s="38">
         <v>2.35</v>
       </c>
       <c r="R19" s="8">
@@ -3662,12 +3736,15 @@
       <c r="V19" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W19" s="18" t="s">
+      <c r="W19" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z19" s="18"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA19" s="18"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -3713,10 +3790,10 @@
       <c r="O20" s="8">
         <v>2.1</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="41">
         <v>2.1</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="38">
         <v>2.4500000000000002</v>
       </c>
       <c r="R20" s="8">
@@ -3734,12 +3811,15 @@
       <c r="V20" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W20" s="18" t="s">
+      <c r="W20" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z20" s="18"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="18"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -3785,10 +3865,10 @@
       <c r="O21" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P21" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q21" s="40">
+      <c r="P21" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q21" s="38">
         <v>2.4500000000000002</v>
       </c>
       <c r="R21" s="8">
@@ -3806,12 +3886,15 @@
       <c r="V21" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W21" s="18" t="s">
+      <c r="W21" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="18"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="18"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -3857,10 +3940,10 @@
       <c r="O22" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P22" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q22" s="40">
+      <c r="P22" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q22" s="38">
         <v>2.25</v>
       </c>
       <c r="R22" s="8">
@@ -3878,12 +3961,15 @@
       <c r="V22" s="8">
         <v>2.1</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="W22" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z22" s="18"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22" s="18"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -3929,10 +4015,10 @@
       <c r="O23" s="8">
         <v>2.5</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="41">
         <v>2.5</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="Q23" s="38">
         <v>2.5</v>
       </c>
       <c r="R23" s="8">
@@ -3950,12 +4036,15 @@
       <c r="V23" s="8">
         <v>2.4</v>
       </c>
-      <c r="W23" s="18" t="s">
+      <c r="W23" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z23" s="18"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA23" s="18"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -4001,10 +4090,10 @@
       <c r="O24" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P24" s="43">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q24" s="40">
+      <c r="P24" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q24" s="38">
         <v>2.25</v>
       </c>
       <c r="R24" s="8">
@@ -4022,12 +4111,15 @@
       <c r="V24" s="8">
         <v>2.1</v>
       </c>
-      <c r="W24" s="18" t="s">
+      <c r="W24" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z24" s="18"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24" s="18"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -4073,10 +4165,10 @@
       <c r="O25" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P25" s="43">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q25" s="40">
+      <c r="P25" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q25" s="38">
         <v>2.25</v>
       </c>
       <c r="R25" s="8">
@@ -4094,12 +4186,15 @@
       <c r="V25" s="8">
         <v>2.1</v>
       </c>
-      <c r="W25" s="18" t="s">
+      <c r="W25" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z25" s="18"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25" s="18"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -4145,32 +4240,35 @@
       <c r="O26" s="8">
         <v>2.6</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="41">
         <v>2.6</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="43">
         <v>2.5</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="44">
         <v>2.4</v>
       </c>
-      <c r="S26" s="46">
+      <c r="S26" s="44">
         <v>2.4300000000000002</v>
       </c>
-      <c r="T26" s="46">
+      <c r="T26" s="44">
         <v>2.48</v>
       </c>
-      <c r="U26" s="46">
+      <c r="U26" s="44">
         <v>2.5</v>
       </c>
-      <c r="V26" s="46">
+      <c r="V26" s="44">
         <v>2.5</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -4216,10 +4314,10 @@
       <c r="O27" s="8">
         <v>2.5</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="41">
         <v>2.5</v>
       </c>
-      <c r="Q27" s="40">
+      <c r="Q27" s="38">
         <v>2.4500000000000002</v>
       </c>
       <c r="R27" s="8">
@@ -4237,12 +4335,15 @@
       <c r="V27" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W27" s="18" t="s">
+      <c r="W27" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z27" s="18"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="18"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -4288,10 +4389,10 @@
       <c r="O28" s="8">
         <v>2.6</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="41">
         <v>2.6</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="Q28" s="38">
         <v>2.65</v>
       </c>
       <c r="R28" s="8">
@@ -4309,12 +4410,15 @@
       <c r="V28" s="8">
         <v>2.4</v>
       </c>
-      <c r="W28" s="18" t="s">
+      <c r="W28" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z28" s="18"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28" s="18"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -4360,10 +4464,10 @@
       <c r="O29" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P29" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q29" s="40">
+      <c r="P29" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q29" s="38">
         <v>2.4500000000000002</v>
       </c>
       <c r="R29" s="8">
@@ -4381,12 +4485,15 @@
       <c r="V29" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W29" s="18" t="s">
+      <c r="W29" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="18"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA29" s="18"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -4432,10 +4539,10 @@
       <c r="O30" s="8">
         <v>2.7</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="41">
         <v>2.7</v>
       </c>
-      <c r="Q30" s="40">
+      <c r="Q30" s="38">
         <v>2.85</v>
       </c>
       <c r="R30" s="8">
@@ -4453,12 +4560,15 @@
       <c r="V30" s="8">
         <v>2.7</v>
       </c>
-      <c r="W30" s="18" t="s">
+      <c r="W30" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z30" s="18"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="18"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -4504,10 +4614,10 @@
       <c r="O31" s="8">
         <v>2</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="41">
         <v>2</v>
       </c>
-      <c r="Q31" s="40">
+      <c r="Q31" s="38">
         <v>2.1</v>
       </c>
       <c r="R31" s="8">
@@ -4525,12 +4635,15 @@
       <c r="V31" s="8">
         <v>2.1</v>
       </c>
-      <c r="W31" s="18" t="s">
+      <c r="W31" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X31" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z31" s="18"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="18"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -4570,10 +4683,10 @@
       <c r="O32" s="8">
         <v>1.8</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="41">
         <v>1.7</v>
       </c>
-      <c r="Q32" s="40">
+      <c r="Q32" s="38">
         <v>2.1</v>
       </c>
       <c r="R32" s="8">
@@ -4591,12 +4704,15 @@
       <c r="V32" s="8">
         <v>2.1</v>
       </c>
-      <c r="W32" s="18" t="s">
+      <c r="W32" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X32" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z32" s="18"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA32" s="18"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
@@ -4642,10 +4758,10 @@
       <c r="O33" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P33" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q33" s="40">
+      <c r="P33" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q33" s="38">
         <v>2.25</v>
       </c>
       <c r="R33" s="8">
@@ -4663,12 +4779,15 @@
       <c r="V33" s="8">
         <v>2.1</v>
       </c>
-      <c r="W33" s="18" t="s">
+      <c r="W33" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X33" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Z33" s="18"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA33" s="18"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4704,10 +4823,10 @@
       <c r="O34" s="8">
         <v>3.2</v>
       </c>
-      <c r="P34" s="43">
+      <c r="P34" s="41">
         <v>3.1</v>
       </c>
-      <c r="Q34" s="40">
+      <c r="Q34" s="38">
         <v>3.1</v>
       </c>
       <c r="R34" s="8">
@@ -4725,11 +4844,14 @@
       <c r="V34" s="8">
         <v>3.1</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -4775,10 +4897,10 @@
       <c r="O35" s="8">
         <v>3.7</v>
       </c>
-      <c r="P35" s="43">
+      <c r="P35" s="41">
         <v>3.7</v>
       </c>
-      <c r="Q35" s="40">
+      <c r="Q35" s="38">
         <v>3.7</v>
       </c>
       <c r="R35" s="8">
@@ -4796,11 +4918,14 @@
       <c r="V35" s="8">
         <v>3.7</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -4838,10 +4963,10 @@
       <c r="O36" s="8">
         <v>2.9</v>
       </c>
-      <c r="P36" s="43">
+      <c r="P36" s="41">
         <v>2.9</v>
       </c>
-      <c r="Q36" s="40">
+      <c r="Q36" s="38">
         <v>2.9</v>
       </c>
       <c r="R36" s="8">
@@ -4859,11 +4984,14 @@
       <c r="V36" s="8">
         <v>2.9</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W36" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>30</v>
       </c>
@@ -4885,14 +5013,17 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="N37" s="10">
+        <f>O37</f>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="O37" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="41">
         <v>2.2200000000000002</v>
       </c>
-      <c r="Q37" s="41"/>
+      <c r="Q37" s="39"/>
       <c r="R37" s="10">
         <f>P37+(V37-P37)/(V1-P1)*(R1-P1)</f>
         <v>2.1800000000000002</v>
@@ -4906,27 +5037,30 @@
       <c r="V37" s="8">
         <v>2.1</v>
       </c>
-      <c r="W37" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="4"/>
+      <c r="W37" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X37" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA37" s="29"/>
       <c r="AB37" s="4"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="46">
         <v>2.2280000000000002</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="46">
         <v>2.2240000000000002</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="46">
         <v>2.2006000000000001</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="46">
         <v>2.1989999999999998</v>
       </c>
       <c r="F38" s="8">
@@ -4959,10 +5093,10 @@
       <c r="O38" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P38" s="44">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q38" s="41"/>
+      <c r="P38" s="42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q38" s="39"/>
       <c r="R38" s="10">
         <f>P38+(V38-P38)/(V1-P1)*(R1-P1)</f>
         <v>2.2333333333333334</v>
@@ -4976,14 +5110,17 @@
       <c r="V38" s="8">
         <v>2.1</v>
       </c>
-      <c r="W38" s="30" t="s">
+      <c r="W38" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="X38" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="4"/>
+      <c r="AA38" s="29"/>
       <c r="AB38" s="4"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>40</v>
       </c>
@@ -5021,10 +5158,10 @@
       <c r="O39" s="8">
         <v>3.8</v>
       </c>
-      <c r="P39" s="43">
+      <c r="P39" s="41">
         <v>3.7</v>
       </c>
-      <c r="Q39" s="40">
+      <c r="Q39" s="38">
         <v>3.7</v>
       </c>
       <c r="R39" s="8">
@@ -5042,11 +5179,14 @@
       <c r="V39" s="8">
         <v>3.7</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W39" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>41</v>
       </c>
@@ -5084,10 +5224,10 @@
       <c r="O40" s="8">
         <v>3.2</v>
       </c>
-      <c r="P40" s="43">
+      <c r="P40" s="41">
         <v>3.2</v>
       </c>
-      <c r="Q40" s="40">
+      <c r="Q40" s="38">
         <v>3.2</v>
       </c>
       <c r="R40" s="8">
@@ -5105,12 +5245,15 @@
       <c r="V40" s="8">
         <v>3.2</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="X40" t="s">
         <v>161</v>
       </c>
-      <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>29</v>
       </c>
@@ -5148,10 +5291,10 @@
       <c r="O41" s="8">
         <v>2.5</v>
       </c>
-      <c r="P41" s="43">
+      <c r="P41" s="41">
         <v>2.5</v>
       </c>
-      <c r="Q41" s="40">
+      <c r="Q41" s="38">
         <v>2.5</v>
       </c>
       <c r="R41" s="8">
@@ -5169,14 +5312,17 @@
       <c r="V41" s="8">
         <v>2.5</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="X41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AA42" s="4"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>58</v>
       </c>
@@ -5193,7 +5339,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
         <v>61</v>
       </c>
@@ -5207,7 +5353,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
         <v>62</v>
       </c>
@@ -5222,7 +5368,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>65</v>
       </c>
@@ -5235,14 +5381,14 @@
       <c r="E47" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>145</v>
       </c>
       <c r="G47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>66</v>
       </c>
@@ -5256,7 +5402,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="C49" t="s">
         <v>31</v>
       </c>
@@ -5267,7 +5416,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="C50" t="s">
         <v>40</v>
       </c>
@@ -5275,7 +5427,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -5283,7 +5438,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5297,7 +5452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -5308,7 +5463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>130</v>
       </c>
@@ -5319,96 +5474,107 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="45"/>
+      <c r="C58" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>152</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
       <c r="E62" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="27" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="26" t="s">
         <v>40</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
       <c r="E64" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5433,68 +5599,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="57">
         <v>1990</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="37">
+      <c r="C1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="57">
         <v>2000</v>
       </c>
-      <c r="E1" s="37">
+      <c r="E1" s="57">
         <v>2012</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" s="37">
+      <c r="F1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="36">
         <v>2019</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -5512,12 +5682,12 @@
         <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G2">
         <v>9.39</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H2" s="56">
         <f>G2*$C$40</f>
         <v>109.20570000000001</v>
       </c>
@@ -5535,10 +5705,10 @@
         <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5546,19 +5716,19 @@
         <f>E3*12.9/9.65</f>
         <v>232.8934585492228</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="50">
         <f>223*E2/160</f>
         <v>174.21875</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="58">
+        <v>209</v>
+      </c>
+      <c r="H3" s="56">
         <f>E3*(1+J3/100)^7</f>
         <v>156.68758528865035</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J3">
         <f>J2</f>
@@ -5569,7 +5739,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5587,12 +5757,12 @@
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4">
         <v>7.44</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="56">
         <f t="shared" ref="H4:H33" si="0">G4*$C$40</f>
         <v>86.527200000000008</v>
       </c>
@@ -5603,14 +5773,14 @@
         <f>((E4/B4)^(1/($E$1-$B$1))-1)*100</f>
         <v>-1.6862858828190941</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="53">
         <v>-0.185</v>
       </c>
       <c r="M4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5621,23 +5791,23 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5">
         <v>14.7</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="56">
         <f t="shared" si="0"/>
         <v>170.96100000000001</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="48">
         <f>((E5/D5)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.5695332314981556</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="53">
         <v>-1.32</v>
       </c>
       <c r="M5" t="s">
@@ -5647,7 +5817,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5665,12 +5835,12 @@
         <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G6">
         <v>11.3</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="56">
         <f t="shared" si="0"/>
         <v>131.41900000000001</v>
       </c>
@@ -5688,7 +5858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5705,12 +5875,12 @@
         <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G7">
         <v>11.2</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="56">
         <f t="shared" si="0"/>
         <v>130.256</v>
       </c>
@@ -5721,7 +5891,7 @@
         <f>((E7/B7)^(1/($E$1-$B$1))-1)*100</f>
         <v>-1.4511121374695013</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="53">
         <v>-1.97</v>
       </c>
       <c r="M7" t="s">
@@ -5731,7 +5901,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5742,19 +5912,19 @@
         <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8">
         <v>14.6</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="56">
         <f t="shared" si="0"/>
         <v>169.798</v>
       </c>
       <c r="I8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="48">
         <f>((E8/D8)^(1/($E$1-$D$1))-1)*100</f>
         <v>-1.2763733707280012</v>
       </c>
@@ -5768,7 +5938,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5786,12 +5956,12 @@
         <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G9">
         <v>8.7200000000000006</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="56">
         <f t="shared" si="0"/>
         <v>101.41360000000002</v>
       </c>
@@ -5802,7 +5972,7 @@
         <f>((E9/B9)^(1/($E$1-$B$1))-1)*100</f>
         <v>-3.9884769915709772</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="53">
         <v>-2.8</v>
       </c>
       <c r="M9" t="s">
@@ -5812,7 +5982,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5830,12 +6000,12 @@
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G10">
         <v>7.31</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="56">
         <f t="shared" si="0"/>
         <v>85.015299999999996</v>
       </c>
@@ -5846,7 +6016,7 @@
         <f>((E10/B10)^(1/($E$1-$B$1))-1)*100</f>
         <v>-0.68402651315054852</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="53">
         <v>-1.56</v>
       </c>
       <c r="M10" t="s">
@@ -5856,7 +6026,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -5867,19 +6037,19 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G11">
         <v>3.92</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="56">
         <f t="shared" si="0"/>
         <v>45.589600000000004</v>
       </c>
       <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="48">
         <f>((E11/D11)^(1/($E$1-$D$1))-1)*100</f>
         <v>-1.5078624739111257</v>
       </c>
@@ -5893,7 +6063,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5911,12 +6081,12 @@
         <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G12">
         <v>9.85</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="56">
         <f t="shared" si="0"/>
         <v>114.55550000000001</v>
       </c>
@@ -5934,7 +6104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -5945,19 +6115,19 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13">
         <v>12.9</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="56">
         <f t="shared" si="0"/>
         <v>150.02700000000002</v>
       </c>
       <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="48">
         <f>((E13/D13)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.579948590954817</v>
       </c>
@@ -5971,7 +6141,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -5989,12 +6159,12 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G14">
         <v>9.44</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="56">
         <f t="shared" si="0"/>
         <v>109.7872</v>
       </c>
@@ -6005,7 +6175,7 @@
         <f>((H14/B14)^(1/($H$1-$B$1))-1)*100</f>
         <v>-0.19852375913819165</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="53">
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="M14" t="s">
@@ -6015,7 +6185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -6023,12 +6193,12 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G15">
         <v>2.56</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="56">
         <f t="shared" si="0"/>
         <v>29.772800000000004</v>
       </c>
@@ -6041,14 +6211,14 @@
       <c r="K15" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="53">
         <v>-1.56</v>
       </c>
       <c r="M15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -6059,23 +6229,23 @@
         <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16">
         <v>15.5</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="56">
         <f t="shared" si="0"/>
         <v>180.26500000000001</v>
       </c>
       <c r="I16" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="48">
         <f>((E16/D16)^(1/($E$1-$D$1))-1)*100</f>
         <v>-3.6429141855319758</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="53">
         <v>-2.84</v>
       </c>
       <c r="M16" t="s">
@@ -6085,7 +6255,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -6096,23 +6266,23 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G17">
         <v>11.3</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="56">
         <f t="shared" si="0"/>
         <v>131.41900000000001</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="48">
         <f>((E17/D17)^(1/($E$1-$D$1))-1)*100</f>
         <v>-4.325561251394106</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="53">
         <v>-1.1599999999999999</v>
       </c>
       <c r="M17" t="s">
@@ -6122,7 +6292,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -6135,12 +6305,12 @@
         <v>188.40600000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G18">
         <v>13.7</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="56">
         <f t="shared" si="0"/>
         <v>159.33099999999999</v>
       </c>
@@ -6155,7 +6325,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -6166,31 +6336,31 @@
         <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="56">
         <f t="shared" si="0"/>
         <v>174.45000000000002</v>
       </c>
       <c r="I19" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="48">
         <f>((E19/D19)^(1/($E$1-$D$1))-1)*100</f>
         <v>-0.2219886323331588</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="55">
+      <c r="L19" s="53">
         <v>0.72299999999999998</v>
       </c>
       <c r="M19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -6199,12 +6369,12 @@
         <v>28.5</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20">
         <v>0.41799999999999998</v>
       </c>
-      <c r="H20" s="58">
+      <c r="H20" s="56">
         <f t="shared" si="0"/>
         <v>4.8613400000000002</v>
       </c>
@@ -6218,7 +6388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -6236,12 +6406,12 @@
         <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G21">
         <v>7.5</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="56">
         <f t="shared" si="0"/>
         <v>87.225000000000009</v>
       </c>
@@ -6252,7 +6422,7 @@
         <f t="shared" si="1"/>
         <v>-3.2765921689998478</v>
       </c>
-      <c r="L21" s="55">
+      <c r="L21" s="53">
         <v>-2.71</v>
       </c>
       <c r="M21" t="s">
@@ -6262,7 +6432,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -6280,12 +6450,12 @@
         <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G22">
         <v>13.7</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="56">
         <f t="shared" si="0"/>
         <v>159.33099999999999</v>
       </c>
@@ -6296,7 +6466,7 @@
         <f t="shared" si="1"/>
         <v>-1.9742733387613565</v>
       </c>
-      <c r="L22" s="55">
+      <c r="L22" s="53">
         <v>-1.45</v>
       </c>
       <c r="M22" t="s">
@@ -6306,7 +6476,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -6324,12 +6494,12 @@
         <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G23">
         <v>13.5</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="56">
         <f t="shared" si="0"/>
         <v>157.00500000000002</v>
       </c>
@@ -6347,7 +6517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6358,12 +6528,12 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G24">
         <v>1.7</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="56">
         <f t="shared" si="0"/>
         <v>19.771000000000001</v>
       </c>
@@ -6377,7 +6547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6388,27 +6558,27 @@
         <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="58">
+        <v>168</v>
+      </c>
+      <c r="H25" s="56">
         <f>E25*(1+J25/100)^7</f>
         <v>107.62613233710704</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
-      </c>
-      <c r="J25" s="50">
+        <v>222</v>
+      </c>
+      <c r="J25" s="48">
         <f>((E25/D25)^(1/($E$1-$D$1))-1)*100</f>
         <v>-4.6317568829852052</v>
       </c>
-      <c r="L25" s="55">
+      <c r="L25" s="53">
         <v>-2.16</v>
       </c>
       <c r="M25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6419,30 +6589,30 @@
         <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G26">
         <v>11.4</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="56">
         <f t="shared" si="0"/>
         <v>132.58200000000002</v>
       </c>
       <c r="I26" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="48">
         <f>((E26/D26)^(1/($E$1-$D$1))-1)*100</f>
         <v>-3.4144604744719809</v>
       </c>
-      <c r="L26" s="55">
+      <c r="L26" s="53">
         <v>-2.91</v>
       </c>
       <c r="M26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6453,30 +6623,30 @@
         <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G27">
         <v>9.76</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="56">
         <f t="shared" si="0"/>
         <v>113.50880000000001</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
-      </c>
-      <c r="J27" s="50">
+        <v>217</v>
+      </c>
+      <c r="J27" s="48">
         <f>((E27/D27)^(1/($E$1-$D$1))-1)*100</f>
         <v>-3.4492222843125253</v>
       </c>
-      <c r="L27" s="55">
+      <c r="L27" s="53">
         <v>-2.1</v>
       </c>
       <c r="M27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6487,30 +6657,30 @@
         <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G28">
         <v>11.4</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="56">
         <f t="shared" si="0"/>
         <v>132.58200000000002</v>
       </c>
       <c r="I28" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="48">
         <f>((E28/D28)^(1/($E$1-$D$1))-1)*100</f>
         <v>0.22549279001520262</v>
       </c>
-      <c r="L28" s="55">
+      <c r="L28" s="53">
         <v>-1.06</v>
       </c>
       <c r="M28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6528,12 +6698,12 @@
         <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G29">
         <v>8.61</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="56">
         <f t="shared" si="0"/>
         <v>100.1343</v>
       </c>
@@ -6544,14 +6714,14 @@
         <f t="shared" si="1"/>
         <v>-1.5036909878066496</v>
       </c>
-      <c r="L29" s="55">
+      <c r="L29" s="53">
         <v>-2.41</v>
       </c>
       <c r="M29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6569,12 +6739,12 @@
         <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G30">
         <v>9.23</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="56">
         <f t="shared" si="0"/>
         <v>107.34490000000001</v>
       </c>
@@ -6586,7 +6756,7 @@
         <v>-1.3517931771567682</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6603,19 +6773,19 @@
         <f>G29</f>
         <v>8.61</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="56">
         <f t="shared" si="0"/>
         <v>100.1343</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
-      </c>
-      <c r="J31" s="50">
+        <v>218</v>
+      </c>
+      <c r="J31" s="48">
         <f>((E31/D31)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.5298223451702295</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
@@ -6634,19 +6804,19 @@
         <f>G29</f>
         <v>8.61</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="56">
         <f t="shared" si="0"/>
         <v>100.1343</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
-      </c>
-      <c r="J32" s="50">
+        <v>218</v>
+      </c>
+      <c r="J32" s="48">
         <f>((E32/D32)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.5298223451702295</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
@@ -6659,30 +6829,30 @@
         <v>123.27800000000001</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G33">
         <v>9.84</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="56">
         <f t="shared" si="0"/>
         <v>114.4392</v>
       </c>
       <c r="I33" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="48">
         <f>((E33/D33)^(1/($E$1-$D$1))-1)*100</f>
         <v>-2.4071217151306668</v>
       </c>
-      <c r="L33" s="55">
+      <c r="L33" s="53">
         <v>-1.93</v>
       </c>
       <c r="M33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
@@ -6698,22 +6868,22 @@
         <v>128</v>
       </c>
       <c r="G34" s="22"/>
-      <c r="H34" s="58">
+      <c r="H34" s="56">
         <f>E34*(1+J34/100)^7</f>
         <v>160.38812915645406</v>
       </c>
       <c r="I34" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J34">
         <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>35</v>
       </c>
@@ -6724,24 +6894,24 @@
         <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H35" s="58">
+        <v>176</v>
+      </c>
+      <c r="H35" s="56">
         <f>E35*(1+J35/100)^7</f>
         <v>116.9184492916207</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J35">
         <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
       <c r="K35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>34</v>
       </c>
@@ -6754,25 +6924,25 @@
         <v>139.18666484961028</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="H36" s="58">
+      <c r="H36" s="56">
         <f>E36*(1+J36/100)^7</f>
         <v>118.68731833716539</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
-      </c>
-      <c r="J36" s="53">
+        <v>222</v>
+      </c>
+      <c r="J36" s="51">
         <f>E73</f>
         <v>-2.2503431994435497</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -6788,22 +6958,22 @@
         <v>128</v>
       </c>
       <c r="G37" s="21"/>
-      <c r="H37" s="58">
+      <c r="H37" s="56">
         <f>E37*(1+J37/100)^7</f>
         <v>128.63779852083024</v>
       </c>
       <c r="I37" t="s">
-        <v>227</v>
-      </c>
-      <c r="J37" s="52">
+        <v>222</v>
+      </c>
+      <c r="J37" s="50">
         <f>J2/10</f>
         <v>-0.15036909878066496</v>
       </c>
       <c r="K37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>41</v>
       </c>
@@ -6820,14 +6990,14 @@
         <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="58">
+        <v>179</v>
+      </c>
+      <c r="H38" s="56">
         <f>E38*(1+J38/100)^7</f>
         <v>143.89962989737933</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J38">
         <f>J2</f>
@@ -6837,15 +7007,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>167</v>
       </c>
       <c r="C40">
         <v>11.63</v>
@@ -6854,10 +7024,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N41" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -6871,46 +7041,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>66</v>
       </c>
@@ -6921,7 +7091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>73</v>
       </c>
@@ -6932,181 +7102,181 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="32" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
         <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
         <v>205</v>
       </c>
-      <c r="C61" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>208</v>
-      </c>
-      <c r="C62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
         <v>220</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="53"/>
       <c r="C66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
         <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="51" t="s">
-        <v>177</v>
+      <c r="C69" s="49" t="s">
+        <v>175</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B72" s="18"/>
       <c r="C72" s="18">
         <v>2015</v>
@@ -7121,7 +7291,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
       <c r="C73">
         <v>130</v>
@@ -7142,20 +7312,20 @@
         <v>139.18666484961028</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" s="37"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="P75" s="4"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B80" s="4"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J86" s="4"/>
     </row>
   </sheetData>
@@ -7184,189 +7354,189 @@
       <selection activeCell="A15" sqref="A15:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/input/households/Space_Heating.xlsx
+++ b/input/households/Space_Heating.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\households\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799A6B5-0F4C-4FBB-BF79-E6558F3C15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC26FA4-E6A3-45A0-AD90-54481CBBA015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="-17910" windowWidth="14400" windowHeight="16455" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30735" yWindow="1920" windowWidth="21495" windowHeight="14655" tabRatio="753" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaPerHousehold" sheetId="1" r:id="rId1"/>
     <sheet name="PersPerHousehold" sheetId="2" r:id="rId2"/>
     <sheet name="SpecificEnergyUse" sheetId="3" r:id="rId3"/>
-    <sheet name="Info" sheetId="5" r:id="rId4"/>
+    <sheet name="Calibration" sheetId="6" r:id="rId4"/>
+    <sheet name="Info" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="234">
   <si>
     <t>Malta</t>
   </si>
@@ -738,17 +739,21 @@
   </si>
   <si>
     <t>value for 2018 equals the one of the year 2019</t>
+  </si>
+  <si>
+    <t>Calibration parameter [-]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1007,7 +1012,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1085,6 +1090,7 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1373,18 +1379,18 @@
       <selection activeCell="H38" sqref="H38:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1437,7 +1443,7 @@
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -1450,7 +1456,7 @@
       <c r="H4" s="20"/>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -1462,7 +1468,7 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -1474,7 +1480,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1486,7 +1492,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1498,7 +1504,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>3.7521888475875231</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1577,7 +1583,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>6.1271374418825353E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>-0.948574178547823</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>1.0262827546208886</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>1.5466201113653932</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>0.62958736948990346</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>0.3929772702200518</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>17</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>0.47760344140972411</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>19</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>0.85416413724435092</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>0.91724282861651574</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>22</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>1</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>2.5147492039382602</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>23</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>24</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>25</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>26</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>1.4131563278658721</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>27</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>1.0288163608925371</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>28</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>1.2665025142567954</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>29</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>31</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>-1.8466524653672156</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>33</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>34</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>41</v>
       </c>
@@ -2205,9 +2211,9 @@
       </c>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>58</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="32" t="s">
         <v>61</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
         <v>62</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="32" t="s">
         <v>65</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>66</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="32" t="s">
         <v>73</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="32" t="s">
         <v>74</v>
       </c>
@@ -2332,8 +2338,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
         <v>67</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="32" t="s">
         <v>128</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="32" t="s">
         <v>130</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="32" t="s">
         <v>132</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="32" t="s">
         <v>133</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="32" t="s">
         <v>135</v>
       </c>
@@ -2384,8 +2390,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="32" customFormat="1" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -2421,19 +2427,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" customWidth="1"/>
-    <col min="24" max="24" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2554,7 +2560,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="59"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -2601,7 +2607,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="59"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2648,7 +2654,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="59"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2695,7 +2701,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="59"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2770,7 +2776,7 @@
       </c>
       <c r="AA6" s="18"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2845,7 +2851,7 @@
       </c>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2920,7 +2926,7 @@
       </c>
       <c r="AA8" s="18"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2995,7 +3001,7 @@
       </c>
       <c r="AA9" s="18"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3069,7 +3075,7 @@
       </c>
       <c r="AA10" s="18"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -3144,7 +3150,7 @@
       </c>
       <c r="AA11" s="18"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3225,7 @@
       </c>
       <c r="AA12" s="18"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3294,7 +3300,7 @@
       </c>
       <c r="AA13" s="18"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3375,7 @@
       </c>
       <c r="AA14" s="18"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3450,7 @@
       </c>
       <c r="AA15" s="18"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3519,7 +3525,7 @@
       </c>
       <c r="AA16" s="18"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
@@ -3594,7 +3600,7 @@
       </c>
       <c r="AA17" s="18"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3669,7 +3675,7 @@
       </c>
       <c r="AA18" s="18"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -3744,7 +3750,7 @@
       </c>
       <c r="AA19" s="18"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -3819,7 +3825,7 @@
       </c>
       <c r="AA20" s="18"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -3894,7 +3900,7 @@
       </c>
       <c r="AA21" s="18"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -3969,7 +3975,7 @@
       </c>
       <c r="AA22" s="18"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -4044,7 +4050,7 @@
       </c>
       <c r="AA23" s="18"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -4119,7 +4125,7 @@
       </c>
       <c r="AA24" s="18"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -4194,7 +4200,7 @@
       </c>
       <c r="AA25" s="18"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -4343,7 +4349,7 @@
       </c>
       <c r="AA27" s="18"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -4418,7 +4424,7 @@
       </c>
       <c r="AA28" s="18"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -4493,7 +4499,7 @@
       </c>
       <c r="AA29" s="18"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -4568,7 +4574,7 @@
       </c>
       <c r="AA30" s="18"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -4643,7 +4649,7 @@
       </c>
       <c r="AA31" s="18"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -4712,7 +4718,7 @@
       </c>
       <c r="AA32" s="18"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
@@ -4787,7 +4793,7 @@
       </c>
       <c r="AA33" s="18"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>30</v>
       </c>
@@ -5047,7 +5053,7 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>31</v>
       </c>
@@ -5120,7 +5126,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>40</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>41</v>
       </c>
@@ -5253,7 +5259,7 @@
       </c>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>29</v>
       </c>
@@ -5319,10 +5325,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AB42" s="4"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>58</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>61</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>62</v>
       </c>
@@ -5368,7 +5374,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>65</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>66</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>73</v>
       </c>
@@ -5416,7 +5422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>74</v>
       </c>
@@ -5427,7 +5433,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>106</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -5463,7 +5469,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>130</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>132</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -5494,11 +5500,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
         <v>151</v>
       </c>
@@ -5520,14 +5526,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
       <c r="E62" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>156</v>
       </c>
@@ -5538,14 +5544,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="E64" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
         <v>158</v>
       </c>
@@ -5556,23 +5562,23 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
     </row>
@@ -5603,24 +5609,24 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625"/>
-    <col min="5" max="5" width="30.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="20" max="20" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="37" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
@@ -5664,7 +5670,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5739,7 +5745,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5982,7 +5988,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -6063,7 +6069,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6104,7 +6110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6141,7 +6147,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -6185,7 +6191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -6292,7 +6298,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -6325,7 +6331,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -6476,7 +6482,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6646,7 +6652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6680,7 +6686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6756,7 +6762,7 @@
         <v>-1.3517931771567682</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>-2.5298223451702295</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
@@ -6816,7 +6822,7 @@
         <v>-2.5298223451702295</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>35</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>34</v>
       </c>
@@ -6942,7 +6948,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -6973,7 +6979,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>41</v>
       </c>
@@ -7007,10 +7013,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -7024,10 +7030,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -7041,7 +7047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>61</v>
       </c>
@@ -7052,7 +7058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>62</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>65</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>66</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>73</v>
       </c>
@@ -7102,7 +7108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>74</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>206</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -7154,7 +7160,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>130</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>132</v>
       </c>
@@ -7170,7 +7176,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>133</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>135</v>
       </c>
@@ -7186,7 +7192,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>180</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>188</v>
       </c>
@@ -7202,7 +7208,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>201</v>
       </c>
@@ -7210,7 +7216,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>204</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>215</v>
       </c>
@@ -7226,7 +7232,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>220</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -7243,7 +7249,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -7254,7 +7260,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>151</v>
       </c>
@@ -7265,7 +7271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -7276,7 +7282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
       <c r="C72" s="18">
         <v>2015</v>
@@ -7291,7 +7297,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
       <c r="C73">
         <v>130</v>
@@ -7312,20 +7318,20 @@
         <v>139.18666484961028</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="37"/>
       <c r="B74" s="52"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P75" s="4"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="4"/>
     </row>
   </sheetData>
@@ -7347,6 +7353,406 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81613246-EA2E-4B34-A2A7-5A4DF5DB6238}">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="61">
+        <v>0.54548975061321947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="61">
+        <v>0.64565470296552097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="61">
+        <v>0.83256731656608352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="61">
+        <v>0.69866925051573792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="61">
+        <v>0.7638481298295885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="61">
+        <v>1.3525028824826275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="61">
+        <v>0.61877967585985072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="61">
+        <v>0.72860996139960199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="61">
+        <v>0.8465401033692932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="61">
+        <v>0.85868427395152502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="61">
+        <v>0.88104732659338392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="61">
+        <v>0.81364728928513641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="61">
+        <v>0.78273477652379519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0.82030913323635868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="61">
+        <v>0.91025981698755565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="61">
+        <v>0.71806010271148657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="61">
+        <v>0.7775995676403793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="61">
+        <v>0.84776127757560216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="61">
+        <v>1.3843049753180527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="61">
+        <v>0.65525046911680618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="61">
+        <v>0.75473896635266557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="61">
+        <v>1.2507112866864762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="61">
+        <v>0.76509948151502349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="61">
+        <v>0.86455759398530896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="61">
+        <v>1.0682268429937749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="61">
+        <v>1.0432411508595323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="61">
+        <v>1.3159435219236699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="61">
+        <v>0.6262913652931289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="61">
+        <v>0.90646455597979136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="61">
+        <v>0.94209056219047782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="61">
+        <v>0.98423224307957646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="61"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="61"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="61"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="61"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="61"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="61"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="61"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="61"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="61"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="61"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="61"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="61"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="61"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="61"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="61"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="61"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="61"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="61"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="61"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="61"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="61"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="61"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="61"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="61"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="61"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="61"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="61"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="61"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="61"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="61"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="61"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="61"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="61"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69C35AF-14AA-4107-B607-B6C16D0EDB85}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -7354,9 +7760,9 @@
       <selection activeCell="A15" sqref="A15:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>96</v>
       </c>
@@ -7365,21 +7771,21 @@
       </c>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>84</v>
       </c>
@@ -7388,7 +7794,7 @@
       </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>86</v>
       </c>
@@ -7397,12 +7803,12 @@
       </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>88</v>
       </c>
@@ -7411,7 +7817,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>90</v>
       </c>
@@ -7420,7 +7826,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>92</v>
       </c>
@@ -7429,7 +7835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>94</v>
       </c>
@@ -7438,7 +7844,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>96</v>
       </c>
@@ -7447,14 +7853,14 @@
       </c>
       <c r="C13" s="25"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>112</v>
       </c>
@@ -7462,7 +7868,7 @@
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>84</v>
       </c>
@@ -7472,7 +7878,7 @@
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>86</v>
       </c>
@@ -7482,13 +7888,13 @@
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>88</v>
       </c>
@@ -7498,7 +7904,7 @@
       </c>
       <c r="D19" s="26"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>115</v>
       </c>
@@ -7508,7 +7914,7 @@
       </c>
       <c r="D20" s="26"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>116</v>
       </c>
@@ -7518,7 +7924,7 @@
       </c>
       <c r="D21" s="26"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>117</v>
       </c>
@@ -7528,7 +7934,7 @@
       </c>
       <c r="D22" s="26"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>90</v>
       </c>

--- a/input/households/Space_Heating.xlsx
+++ b/input/households/Space_Heating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\households\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC26FA4-E6A3-45A0-AD90-54481CBBA015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1858BF6B-DC83-4A93-922D-F776D5ED087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="1920" windowWidth="21495" windowHeight="14655" tabRatio="753" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" tabRatio="753" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaPerHousehold" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="240">
   <si>
     <t>Malta</t>
   </si>
@@ -551,15 +551,6 @@
     <t>specific demand allready very low =&gt; no change in spec. energy demand</t>
   </si>
   <si>
-    <t>spec. demand in 2012 = 2015 value</t>
-  </si>
-  <si>
-    <t>kWh/km² = Sweden</t>
-  </si>
-  <si>
-    <t>kWh/km² = Austria</t>
-  </si>
-  <si>
     <t>A1, F2</t>
   </si>
   <si>
@@ -578,15 +569,9 @@
     <t>Year 1990 (and 2005)</t>
   </si>
   <si>
-    <t>[6], p.7, A2</t>
-  </si>
-  <si>
     <t>A7</t>
   </si>
   <si>
-    <t>kWh/km² = North Macedonia</t>
-  </si>
-  <si>
     <t>From the source, othervise own assumption for years ending with 5</t>
   </si>
   <si>
@@ -594,9 +579,6 @@
   </si>
   <si>
     <t>[7], A4</t>
-  </si>
-  <si>
-    <t>kWh/km² makes 57% of total energy consumption per m²</t>
   </si>
   <si>
     <t>C1</t>
@@ -639,9 +621,6 @@
     <t>Trend Rate [%] calc</t>
   </si>
   <si>
-    <t>A3, F1</t>
-  </si>
-  <si>
     <t>Before actualization of data in [4]</t>
   </si>
   <si>
@@ -742,6 +721,45 @@
   </si>
   <si>
     <t>Calibration parameter [-]</t>
+  </si>
+  <si>
+    <t>[6], p.6, A2</t>
+  </si>
+  <si>
+    <t>spec. demand in 2012 = 2015 or 2006 value</t>
+  </si>
+  <si>
+    <t>https://euronews.al/en/study-on-albanian-homes-the-average-space-per-inhabitant-is-14-m2/</t>
+  </si>
+  <si>
+    <t>https://pdf.usaid.gov/pdf_docs/PNACC281.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ikem.de/wp-content/uploads/2016/01/SLED_Albania_RESIDENTIAL_BUILDING_ENG.pdf</t>
+  </si>
+  <si>
+    <t>area_per_person</t>
+  </si>
+  <si>
+    <t>kWh/m² makes 57% of total energy consumption per m²</t>
+  </si>
+  <si>
+    <t>kWh/m² = Sweden</t>
+  </si>
+  <si>
+    <t>kWh/m² = Austria</t>
+  </si>
+  <si>
+    <t>kWh/m² = North Macedonia</t>
+  </si>
+  <si>
+    <t>A2, A7, based on [10] p. 56</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/324602568_The_typology_of_the_residential_building_stock_in_Albania_and_the_modelling_of_its_low-carbon_transformation_Support_for_Low-Emission_Development_in_South_Eastern_Europe_SLED#fullTextFileContent</t>
   </si>
 </sst>
 </file>
@@ -753,7 +771,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1090,7 +1108,7 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1373,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:I38"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1622,7 @@
         <v>0.80898545535437183</v>
       </c>
       <c r="I13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J13" s="20">
         <f xml:space="preserve"> ( ((50.4*1.9)/(45.1*2.1))^(1/(2035-2017)) -1 )*100</f>
@@ -2180,11 +2198,11 @@
         <v>40</v>
       </c>
       <c r="B43" s="17">
-        <f>B42</f>
-        <v>74.2</v>
+        <f>19.5*3.8</f>
+        <v>74.099999999999994</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2338,80 +2356,107 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="32" t="s">
+    <row r="54" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="32">
+        <v>2015</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B56" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C56" s="32" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C61" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:11" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B63" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C63" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D63" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F63" s="33" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F47" r:id="rId2" xr:uid="{ACE107B0-2A42-4831-8B12-D3E23C34175D}"/>
     <hyperlink ref="F52" r:id="rId3" xr:uid="{8E52F29A-1229-4702-84E6-D1230EECE150}"/>
     <hyperlink ref="F53" r:id="rId4" xr:uid="{A6CCF893-ECBC-4751-A3DF-0CEE63BD6BEA}"/>
@@ -2429,7 +2474,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,10 +2552,10 @@
         <v>2050</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -5047,7 +5092,7 @@
         <v>60</v>
       </c>
       <c r="X37" s="29" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AA37" s="29"/>
       <c r="AB37" s="4"/>
@@ -5117,7 +5162,7 @@
         <v>2.1</v>
       </c>
       <c r="W38" s="60" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="X38" s="29" t="s">
         <v>130</v>
@@ -5488,7 +5533,7 @@
         <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,7 +5542,7 @@
       </c>
       <c r="B58" s="45"/>
       <c r="C58" s="26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5603,10 +5648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,31 +5688,31 @@
         <v>2012</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H1" s="36">
         <v>2019</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L1" s="57" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5711,7 +5756,7 @@
         <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5727,14 +5772,14 @@
         <v>174.21875</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H3" s="56">
         <f>E3*(1+J3/100)^7</f>
         <v>156.68758528865035</v>
       </c>
       <c r="I3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J3">
         <f>J2</f>
@@ -6165,7 +6210,7 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G14">
         <v>9.44</v>
@@ -6199,7 +6244,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G15">
         <v>2.56</v>
@@ -6311,7 +6356,7 @@
         <v>188.40600000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G18">
         <v>13.7</v>
@@ -6375,7 +6420,7 @@
         <v>28.5</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G20">
         <v>0.41799999999999998</v>
@@ -6571,7 +6616,7 @@
         <v>107.62613233710704</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J25" s="48">
         <f>((E25/D25)^(1/($E$1-$D$1))-1)*100</f>
@@ -6639,7 +6684,7 @@
         <v>113.50880000000001</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J27" s="48">
         <f>((E27/D27)^(1/($E$1-$D$1))-1)*100</f>
@@ -6663,7 +6708,7 @@
         <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G28">
         <v>11.4</v>
@@ -6784,7 +6829,7 @@
         <v>100.1343</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J31" s="48">
         <f>((E31/D31)^(1/($E$1-$D$1))-1)*100</f>
@@ -6815,7 +6860,7 @@
         <v>100.1343</v>
       </c>
       <c r="I32" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J32" s="48">
         <f>((E32/D32)^(1/($E$1-$D$1))-1)*100</f>
@@ -6835,7 +6880,7 @@
         <v>123.27800000000001</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G33">
         <v>9.84</v>
@@ -6879,14 +6924,14 @@
         <v>160.38812915645406</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J34">
         <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
       <c r="K34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,21 +6945,21 @@
         <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H35" s="56">
         <f>E35*(1+J35/100)^7</f>
         <v>116.9184492916207</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J35">
         <f>J2</f>
         <v>-1.5036909878066496</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -6922,15 +6967,15 @@
         <v>34</v>
       </c>
       <c r="D36" s="22">
-        <f>F73</f>
+        <f>F74</f>
         <v>182.90043290043297</v>
       </c>
       <c r="E36" s="22">
-        <f>H73</f>
+        <f>H74</f>
         <v>139.18666484961028</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="56">
@@ -6938,14 +6983,14 @@
         <v>118.68731833716539</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J36" s="51">
-        <f>E73</f>
+        <f>E74</f>
         <v>-2.2503431994435497</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -6961,7 +7006,7 @@
         <v>130</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="56">
@@ -6969,14 +7014,14 @@
         <v>128.63779852083024</v>
       </c>
       <c r="I37" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J37" s="50">
         <f>J2/10</f>
         <v>-0.15036909878066496</v>
       </c>
       <c r="K37" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -6996,14 +7041,14 @@
         <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="H38" s="56">
         <f>E38*(1+J38/100)^7</f>
         <v>143.89962989737933</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J38">
         <f>J2</f>
@@ -7052,7 +7097,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>51</v>
@@ -7074,16 +7119,16 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G46" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -7113,7 +7158,7 @@
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E49" s="54" t="s">
         <v>56</v>
@@ -7132,213 +7177,224 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
         <v>124</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="B67" s="53"/>
+      <c r="C67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" t="s">
         <v>149</v>
       </c>
-      <c r="E68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="C70" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>197</v>
-      </c>
-      <c r="B71" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18">
-        <v>2015</v>
-      </c>
-      <c r="D72">
-        <v>2030</v>
-      </c>
-      <c r="F72">
-        <v>2000</v>
-      </c>
-      <c r="H72">
-        <v>2012</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
-      <c r="C73">
+      <c r="C73" s="18">
+        <v>2015</v>
+      </c>
+      <c r="D73">
+        <v>2030</v>
+      </c>
+      <c r="F73">
+        <v>2000</v>
+      </c>
+      <c r="H73">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
+      <c r="C74">
         <v>130</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>92.4</v>
       </c>
-      <c r="E73">
-        <f>(POWER(D73/C73,(1/(D72-C72)))-1)*100</f>
+      <c r="E74">
+        <f>(POWER(D74/C74,(1/(D73-C73)))-1)*100</f>
         <v>-2.2503431994435497</v>
       </c>
-      <c r="F73">
-        <f>$C$73*(1+$E$73/100)^(F72-$C$72)</f>
+      <c r="F74">
+        <f>$C$74*(1+$E$74/100)^(F73-$C$73)</f>
         <v>182.90043290043297</v>
       </c>
-      <c r="H73">
-        <f>$C$73*(1+$E$73/100)^(H72-$C$72)</f>
+      <c r="H74">
+        <f>$C$74*(1+$E$74/100)^(H73-$C$73)</f>
         <v>139.18666484961028</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-    </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P75" s="4"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" s="4"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P76" s="4"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E48" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E69" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E70" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="E47" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="E44" r:id="rId4" xr:uid="{239413D0-A1EF-46AC-AB53-48732DE9BE13}"/>
     <hyperlink ref="E45" r:id="rId5" location="tab-chart_1" xr:uid="{013FEB32-9035-44D1-A476-B2722818BEEB}"/>
@@ -7356,7 +7412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81613246-EA2E-4B34-A2A7-5A4DF5DB6238}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -7370,7 +7426,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
